--- a/data/trans_orig/Q21A-Clase-trans_orig.xlsx
+++ b/data/trans_orig/Q21A-Clase-trans_orig.xlsx
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>1.11404607333795</v>
+        <v>1.108278200490939</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>1.47050707596683</v>
+        <v>1.470111600927975</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>1.281541588653621</v>
+        <v>1.302077934872876</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>1.478804092852896</v>
+        <v>1.447064086097897</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>1.467837363476036</v>
+        <v>1.481979635722818</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>1.59134397163071</v>
+        <v>1.577559242142575</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>1.544414181648357</v>
+        <v>1.554483006891741</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>1.553910187420063</v>
+        <v>1.533853341248632</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>1.306810658552092</v>
+        <v>1.306775354062061</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1.630140654147973</v>
+        <v>1.629431151483014</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>1.524912532242215</v>
+        <v>1.519014746875953</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>1.552365442401603</v>
+        <v>1.562702249829886</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>1.301363062265654</v>
+        <v>1.300514201260454</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>2.686551884605011</v>
+        <v>2.800351359713229</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>3.001037059715947</v>
+        <v>3.282261382966246</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>2.160592439913788</v>
+        <v>2.17029461422862</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>2.486366961055099</v>
+        <v>2.48171126636991</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>2.280218004326933</v>
+        <v>2.267840746948777</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>3.654101009989142</v>
+        <v>3.419717883314287</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>2.058989040904114</v>
+        <v>2.073039919749924</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>1.808030120841062</v>
+        <v>1.77040775415731</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2.206937635280058</v>
+        <v>2.259065046156986</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>2.860809592715416</v>
+        <v>2.702414509588448</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>1.978359661904985</v>
+        <v>1.989604353174898</v>
       </c>
     </row>
     <row r="7">
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>1.184820663863697</v>
+        <v>1.179187586310174</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>1.434190122082375</v>
+        <v>1.43707869034496</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>1.233055622061979</v>
+        <v>1.232287483211963</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>1.388483229898764</v>
+        <v>1.405074041652446</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>1.432107485656817</v>
+        <v>1.419331875563079</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>1.679128608591673</v>
+        <v>1.652794273745213</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>1.657389659447686</v>
+        <v>1.629944839235051</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>1.821946760328757</v>
+        <v>1.852214351347542</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>1.376432090624085</v>
+        <v>1.376267247307668</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>1.677390132915712</v>
+        <v>1.692701807671364</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>1.547531704971617</v>
+        <v>1.556266542083858</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>1.713042702022822</v>
+        <v>1.718207276905161</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>1.605788259929711</v>
+        <v>1.563994777782765</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>4.616529837343844</v>
+        <v>3.93380384365335</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>1.786321776912623</v>
+        <v>1.760729952648594</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>2.29744421675513</v>
+        <v>2.217779279259154</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>2.196549507575898</v>
+        <v>2.17436580117357</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>3.285017227369251</v>
+        <v>3.271340482671149</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>3.496132586860378</v>
+        <v>3.471731121957009</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>3.408976178960683</v>
+        <v>3.329807961614645</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>1.837381385436258</v>
+        <v>1.811332512859579</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>3.130098426668914</v>
+        <v>3.126266896349201</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>2.832788807293549</v>
+        <v>2.837426548578731</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>2.717334283140806</v>
+        <v>2.69316928932313</v>
       </c>
     </row>
     <row r="10">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.219075555190578</v>
+        <v>1.216276694817381</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>1.507609596416029</v>
+        <v>1.501664473706639</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>1.437762341867998</v>
+        <v>1.456695894346695</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>1.41753259018683</v>
+        <v>1.417590403072855</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>1.533500704321387</v>
+        <v>1.528057945580779</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>1.274188382724141</v>
+        <v>1.281476483774241</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>1.32497593216228</v>
+        <v>1.335716674133243</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>1.463963780172369</v>
+        <v>1.467907587119133</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>1.368204121595328</v>
+        <v>1.352922588966715</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>1.489939440101112</v>
+        <v>1.481231169730514</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>1.468547143811131</v>
+        <v>1.487007726349223</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>1.498757389300418</v>
+        <v>1.491315693272021</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>1.46354141597278</v>
+        <v>1.449972668829316</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>2.119156359279311</v>
+        <v>2.162960455583741</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>2.072409823085349</v>
+        <v>2.101322629323663</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>2.87746397231887</v>
+        <v>2.875284300749842</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>2.447718341146524</v>
+        <v>2.511430235834896</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>1.844127618108779</v>
+        <v>1.844468187726322</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>2.087649242472785</v>
+        <v>2.081108982383963</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>1.985736811410368</v>
+        <v>1.973377057832971</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>1.741359917039021</v>
+        <v>1.729274558461673</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1.961975013370663</v>
+        <v>1.946968622504762</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1.973051486851248</v>
+        <v>2.03210590211207</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>2.420402280362634</v>
+        <v>2.437299650530764</v>
       </c>
     </row>
     <row r="13">
@@ -1089,7 +1089,7 @@
         <v>1.968316404888266</v>
       </c>
       <c r="J13" s="5" t="n">
-        <v>2.250814480146026</v>
+        <v>2.250814480146027</v>
       </c>
       <c r="K13" s="5" t="n">
         <v>1.530535256540764</v>
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>1.255302083091278</v>
+        <v>1.253190337851521</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>1.548547534701861</v>
+        <v>1.573864054988821</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>1.462224660797192</v>
+        <v>1.46711967012712</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>1.547013307155801</v>
+        <v>1.546096483106549</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>1.522453673416108</v>
+        <v>1.546388243079097</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>1.73288933381585</v>
+        <v>1.727825945893947</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>1.706532396838029</v>
+        <v>1.701992807168881</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>1.894288063369559</v>
+        <v>1.867258874869353</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>1.418228171142222</v>
+        <v>1.421929720409977</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>1.695808897600664</v>
+        <v>1.710583042008325</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>1.636346760508133</v>
+        <v>1.624223997110874</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>1.781833621752039</v>
+        <v>1.765640000384275</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>1.525949346348155</v>
+        <v>1.505652403615945</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>2.219150919727671</v>
+        <v>2.261098813970532</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>2.014000036882348</v>
+        <v>2.039817899736577</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>3.024121317144784</v>
+        <v>3.015239146413877</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>2.08638735831926</v>
+        <v>2.062251888700143</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>2.304423607402931</v>
+        <v>2.310629270968669</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>2.440338668889594</v>
+        <v>2.441465306086815</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>2.955479347957535</v>
+        <v>3.015994293852727</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>1.683857252611086</v>
+        <v>1.694401926922418</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>2.103754513957877</v>
+        <v>2.127464629194665</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>2.05869667713797</v>
+        <v>2.071225844958471</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>2.575355072365161</v>
+        <v>2.553328567467024</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>1.74257485973817</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>1.894726962606966</v>
+        <v>1.894726962606965</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>1.685956136746894</v>
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>1.417703362832348</v>
+        <v>1.420213222410016</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>1.355162445549939</v>
+        <v>1.342346957816268</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>1.440285348051207</v>
+        <v>1.474341535140421</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>1.469315005723632</v>
+        <v>1.51730109837613</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>1.461557977699734</v>
+        <v>1.45930202391004</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>1.779839824255975</v>
+        <v>1.782009509261179</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>1.719627980049335</v>
+        <v>1.744772753486038</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>1.76329491358186</v>
+        <v>1.76474235392256</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>1.515498627347099</v>
+        <v>1.532456347227363</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1.685834323087255</v>
+        <v>1.680552761162147</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>1.681971678596521</v>
+        <v>1.686194250104476</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>1.735651717528577</v>
+        <v>1.732267190251038</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>3.252964762944079</v>
+        <v>3.260993337838899</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>2.019326057411718</v>
+        <v>2.078640574558384</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>2.247780869101186</v>
+        <v>2.293806295628974</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>2.628133108281882</v>
+        <v>2.807120502488947</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>2.036189557585004</v>
+        <v>2.04854488301403</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>2.384389894627929</v>
+        <v>2.382952930197124</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>2.27180116074494</v>
+        <v>2.305076476572069</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>2.093557608138732</v>
+        <v>2.098061653352738</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>2.088813008293553</v>
+        <v>2.154331186985963</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>2.180575861116858</v>
+        <v>2.159051166489003</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>2.120476866444289</v>
+        <v>2.116904281282865</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>2.224508865429276</v>
+        <v>2.215890385054005</v>
       </c>
     </row>
     <row r="19">
@@ -1361,7 +1361,7 @@
         <v>1.67601335421069</v>
       </c>
       <c r="J19" s="5" t="n">
-        <v>1.680976907178016</v>
+        <v>1.680976907178017</v>
       </c>
       <c r="K19" s="5" t="n">
         <v>1.684438581973536</v>
@@ -1384,40 +1384,40 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>1.124137278481475</v>
+        <v>1.120984001350892</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>1.157461533421412</v>
+        <v>1.157511116277191</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>1.134528214990639</v>
+        <v>1.136095610647498</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>1.233265887473126</v>
+        <v>1.209404970701942</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>1.59164857834977</v>
+        <v>1.581201850760362</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>1.583771623038079</v>
+        <v>1.582110391190206</v>
       </c>
       <c r="I20" s="5" t="n">
-        <v>1.53578392057248</v>
+        <v>1.526226067309534</v>
       </c>
       <c r="J20" s="5" t="n">
-        <v>1.481988004933629</v>
+        <v>1.495797649923366</v>
       </c>
       <c r="K20" s="5" t="n">
-        <v>1.533196053718344</v>
+        <v>1.548356754070287</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>1.531833228477927</v>
+        <v>1.539026522005682</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>1.471703030187644</v>
+        <v>1.472061196717705</v>
       </c>
       <c r="N20" s="5" t="n">
-        <v>1.469593998201841</v>
+        <v>1.470089471168983</v>
       </c>
     </row>
     <row r="21">
@@ -1428,40 +1428,40 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>1.475566019266087</v>
+        <v>1.472065535906834</v>
       </c>
       <c r="D21" s="5" t="n">
-        <v>1.591319207986633</v>
+        <v>1.575078420273945</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>1.500351702513533</v>
+        <v>1.51814249262076</v>
       </c>
       <c r="F21" s="5" t="n">
-        <v>2.39261898951238</v>
+        <v>2.322988251454661</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>2.037795112321166</v>
+        <v>1.950874544778411</v>
       </c>
       <c r="H21" s="5" t="n">
-        <v>1.904551805386505</v>
+        <v>1.927911058038449</v>
       </c>
       <c r="I21" s="5" t="n">
-        <v>1.838108333173805</v>
+        <v>1.857360024143254</v>
       </c>
       <c r="J21" s="5" t="n">
-        <v>2.173985375956276</v>
+        <v>2.139970375513642</v>
       </c>
       <c r="K21" s="5" t="n">
-        <v>1.875496399179879</v>
+        <v>1.894050429551696</v>
       </c>
       <c r="L21" s="5" t="n">
-        <v>1.817323397565027</v>
+        <v>1.820340192048139</v>
       </c>
       <c r="M21" s="5" t="n">
-        <v>1.733713407277741</v>
+        <v>1.734121996337759</v>
       </c>
       <c r="N21" s="5" t="n">
-        <v>1.996841130774347</v>
+        <v>2.021874318384088</v>
       </c>
     </row>
     <row r="22">
@@ -1497,7 +1497,7 @@
         <v>1.891449375237529</v>
       </c>
       <c r="J22" s="5" t="n">
-        <v>1.961556378571712</v>
+        <v>1.961556378571711</v>
       </c>
       <c r="K22" s="5" t="n">
         <v>1.586082388584332</v>
@@ -1520,40 +1520,40 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>1.285636992125998</v>
+        <v>1.289687458838959</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>1.588966717001222</v>
+        <v>1.59590018174952</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1.501814102101368</v>
+        <v>1.501791384645148</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1.632152862113669</v>
+        <v>1.614038606651571</v>
       </c>
       <c r="G23" s="5" t="n">
-        <v>1.630301431966152</v>
+        <v>1.636264974866902</v>
       </c>
       <c r="H23" s="5" t="n">
-        <v>1.769502837101322</v>
+        <v>1.784618213422844</v>
       </c>
       <c r="I23" s="5" t="n">
-        <v>1.765834553429465</v>
+        <v>1.755262954710756</v>
       </c>
       <c r="J23" s="5" t="n">
-        <v>1.828064868610705</v>
+        <v>1.826145302747864</v>
       </c>
       <c r="K23" s="5" t="n">
-        <v>1.514715864671328</v>
+        <v>1.516830748037695</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1.732186217113103</v>
+        <v>1.737219188458701</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1.677279389070349</v>
+        <v>1.675882378587727</v>
       </c>
       <c r="N23" s="5" t="n">
-        <v>1.767101289904993</v>
+        <v>1.763262373725838</v>
       </c>
     </row>
     <row r="24">
@@ -1564,40 +1564,40 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>1.47945140799032</v>
+        <v>1.473355191715866</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>1.9649740181627</v>
+        <v>1.993073979523915</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1.813908829202131</v>
+        <v>1.808946213212082</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>2.146339624820162</v>
+        <v>2.089805453581009</v>
       </c>
       <c r="G24" s="5" t="n">
-        <v>1.870370427170107</v>
+        <v>1.865264440544339</v>
       </c>
       <c r="H24" s="5" t="n">
-        <v>2.037324531540652</v>
+        <v>2.042739516106549</v>
       </c>
       <c r="I24" s="5" t="n">
-        <v>2.101529422999084</v>
+        <v>2.088232809693034</v>
       </c>
       <c r="J24" s="5" t="n">
-        <v>2.181699041338028</v>
+        <v>2.208782681053068</v>
       </c>
       <c r="K24" s="5" t="n">
-        <v>1.671255861965747</v>
+        <v>1.681861570587043</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1.941384168652458</v>
+        <v>1.951341095231431</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1.913365929996939</v>
+        <v>1.90983566159839</v>
       </c>
       <c r="N24" s="5" t="n">
-        <v>2.07546655494308</v>
+        <v>2.087838882505892</v>
       </c>
     </row>
     <row r="25">
